--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N2">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O2">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P2">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q2">
-        <v>19.72320519245924</v>
+        <v>28.13484005712089</v>
       </c>
       <c r="R2">
-        <v>19.72320519245924</v>
+        <v>253.213560514088</v>
       </c>
       <c r="S2">
-        <v>0.007197755600172071</v>
+        <v>0.009389801215801087</v>
       </c>
       <c r="T2">
-        <v>0.007197755600172071</v>
+        <v>0.009389801215801087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N3">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P3">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q3">
-        <v>85.64023317320336</v>
+        <v>101.0094703672827</v>
       </c>
       <c r="R3">
-        <v>85.64023317320336</v>
+        <v>909.0852333055441</v>
       </c>
       <c r="S3">
-        <v>0.03125341251117444</v>
+        <v>0.03371118676120147</v>
       </c>
       <c r="T3">
-        <v>0.03125341251117444</v>
+        <v>0.03371118676120147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N4">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O4">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P4">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q4">
-        <v>16.94850045391525</v>
+        <v>21.271470839366</v>
       </c>
       <c r="R4">
-        <v>16.94850045391525</v>
+        <v>191.443237554294</v>
       </c>
       <c r="S4">
-        <v>0.006185159200357971</v>
+        <v>0.007099200931792876</v>
       </c>
       <c r="T4">
-        <v>0.006185159200357971</v>
+        <v>0.007099200931792876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N5">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O5">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P5">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q5">
-        <v>394.4858624850406</v>
+        <v>495.8125567230699</v>
       </c>
       <c r="R5">
-        <v>394.4858624850406</v>
+        <v>4462.313010507629</v>
       </c>
       <c r="S5">
-        <v>0.1439630525659187</v>
+        <v>0.1654738871262716</v>
       </c>
       <c r="T5">
-        <v>0.1439630525659187</v>
+        <v>0.1654738871262716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N6">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P6">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q6">
-        <v>1712.899141751447</v>
+        <v>1780.062145523729</v>
       </c>
       <c r="R6">
-        <v>1712.899141751447</v>
+        <v>16020.55930971357</v>
       </c>
       <c r="S6">
-        <v>0.6251027289816545</v>
+        <v>0.5940829826757734</v>
       </c>
       <c r="T6">
-        <v>0.6251027289816545</v>
+        <v>0.5940829826757734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N7">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O7">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P7">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q7">
-        <v>338.9887066604718</v>
+        <v>374.861286601021</v>
       </c>
       <c r="R7">
-        <v>338.9887066604718</v>
+        <v>3373.751579409189</v>
       </c>
       <c r="S7">
-        <v>0.1237100074734996</v>
+        <v>0.1251072676274963</v>
       </c>
       <c r="T7">
-        <v>0.1237100074734996</v>
+        <v>0.1251072676274963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N8">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O8">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P8">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q8">
-        <v>27.65535935584708</v>
+        <v>36.50547538403067</v>
       </c>
       <c r="R8">
-        <v>27.65535935584708</v>
+        <v>328.549278456276</v>
       </c>
       <c r="S8">
-        <v>0.01009250351228027</v>
+        <v>0.0121834407605815</v>
       </c>
       <c r="T8">
-        <v>0.01009250351228027</v>
+        <v>0.0121834407605815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N9">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P9">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q9">
-        <v>120.0824815547215</v>
+        <v>131.061656172932</v>
       </c>
       <c r="R9">
-        <v>120.0824815547215</v>
+        <v>1179.554905556388</v>
       </c>
       <c r="S9">
-        <v>0.04382271267063189</v>
+        <v>0.04374088837821655</v>
       </c>
       <c r="T9">
-        <v>0.04382271267063189</v>
+        <v>0.04374088837821655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N10">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O10">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P10">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q10">
-        <v>23.76474138062346</v>
+        <v>27.60012687230699</v>
       </c>
       <c r="R10">
-        <v>23.76474138062346</v>
+        <v>248.401141850763</v>
       </c>
       <c r="S10">
-        <v>0.008672667484310405</v>
+        <v>0.009211344522865324</v>
       </c>
       <c r="T10">
-        <v>0.008672667484310405</v>
+        <v>0.009211344522865324</v>
       </c>
     </row>
   </sheetData>
